--- a/meta/16-6-1.xlsx
+++ b/meta/16-6-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>16.6.  Создать эффективные, подотчетные и прозрачные учреждения на всех уровнях</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6.1. Первичные расходы правительства в процентном отношении к первоначальному утвержденному бюджету в разбивке по секторам (по кодам бюджетной классификации или аналогичным категориям) </t>
-  </si>
-  <si>
     <t>Министерство финансов Кыргызской Ремпублики (Управление бюджетной политики)</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io 
 Метаданные на сайте ООН - https://unstats.un.org/sdgs/Metadata-16-06-01.pdf;  
 Сайт МФ КР - http://www.minfin.kg/ru/novosti/godovoy-otchet-ob-ispolnenii-byudzheta/page2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6.1 Первичные расходы правительства в процентном отношении к первоначальному утвержденному бюджету в разбивке по секторам (по кодам бюджетной классификации или аналогичным категориям) </t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
